--- a/flame-flask/static/func_case_template.xlsx
+++ b/flame-flask/static/func_case_template.xlsx
@@ -49,7 +49,7 @@
     <t>case1</t>
   </si>
   <si>
-    <t/>
+    <t>a</t>
   </si>
   <si>
     <t>b</t>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,9 +250,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -575,16 +572,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -623,13 +620,13 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -661,7 +658,7 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
@@ -691,7 +688,7 @@
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
